--- a/sorting/src/test/resources/smallClass.xlsx
+++ b/sorting/src/test/resources/smallClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arutf\Documents\classOrganization\sorting\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72069CFD-9F20-44A1-BB19-6550CF31A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51828A99-F8B9-4445-827E-D8AB9B60AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8970" windowHeight="12360" xr2:uid="{131456CF-7EB1-4CC1-918A-C8EFFA40FAED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Teachers</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>E,B</t>
-  </si>
-  <si>
-    <t>D,A</t>
   </si>
 </sst>
 </file>
@@ -442,7 +436,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -498,12 +492,6 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -519,9 +507,6 @@
       </c>
       <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/sorting/src/test/resources/smallClass.xlsx
+++ b/sorting/src/test/resources/smallClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arutf\Documents\classOrganization\sorting\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51828A99-F8B9-4445-827E-D8AB9B60AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3DC56-0CDD-421D-82B9-25B4027995D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8970" windowHeight="12360" xr2:uid="{131456CF-7EB1-4CC1-918A-C8EFFA40FAED}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{131456CF-7EB1-4CC1-918A-C8EFFA40FAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -497,6 +497,9 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
@@ -504,9 +507,6 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
